--- a/data/team_links.xlsx
+++ b/data/team_links.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="l1_ops" sheetId="2" r:id="rId2"/>
-    <sheet name="Scipher_vx" sheetId="4" r:id="rId3"/>
+    <sheet name="scipher_vx" sheetId="4" r:id="rId3"/>
     <sheet name="scipher" sheetId="3" r:id="rId4"/>
     <sheet name="roc" sheetId="5" r:id="rId5"/>
     <sheet name="admin" sheetId="6" r:id="rId6"/>
+    <sheet name="scipher_fx" sheetId="8" r:id="rId7"/>
+    <sheet name="scipher_rx" sheetId="7" r:id="rId8"/>
+    <sheet name="scipher_di" sheetId="9" r:id="rId9"/>
+    <sheet name="soc" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$D$8</definedName>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t>Team / Title</t>
   </si>
@@ -39,9 +43,6 @@
     <t>Icon</t>
   </si>
   <si>
-    <t>Vx</t>
-  </si>
-  <si>
     <t>Rx</t>
   </si>
   <si>
@@ -231,15 +232,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>vx</t>
-  </si>
-  <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>rx</t>
-  </si>
-  <si>
     <t>https://scipher.vx.utopusinsights.io/</t>
   </si>
   <si>
@@ -295,6 +287,15 @@
   </si>
   <si>
     <t>Scipher</t>
+  </si>
+  <si>
+    <t>Scipher_vx</t>
+  </si>
+  <si>
+    <t>Admin panel</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -373,27 +374,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -703,7 +684,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.42578125" defaultRowHeight="15"/>
@@ -726,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -735,138 +716,138 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -986,9 +967,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1007,259 +988,288 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1282,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1288,21 +1298,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1314,11 +1324,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" s="1" t="s">
@@ -1331,49 +1344,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1404,7 +1417,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -1419,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1440,84 +1453,84 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1550,18 +1563,15 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="5"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="5"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="5"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4">
@@ -1579,10 +1589,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A15">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
@@ -1592,10 +1602,48 @@
     <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1616,7 +1664,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/team_links.xlsx
+++ b/data/team_links.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">l1_ops!$A$1:$E$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">roc!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>Team / Title</t>
   </si>
@@ -296,6 +297,27 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>graphana</t>
+  </si>
+  <si>
+    <t>datadog</t>
+  </si>
+  <si>
+    <t>dynatrace</t>
+  </si>
+  <si>
+    <t>splunk</t>
+  </si>
+  <si>
+    <t>tsdb</t>
+  </si>
+  <si>
+    <t>aws</t>
   </si>
 </sst>
 </file>
@@ -673,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,15 +1020,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,13 +1044,16 @@
       <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1034,12 +1062,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1047,13 +1075,16 @@
       <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1061,13 +1092,16 @@
       <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1075,13 +1109,16 @@
       <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1089,13 +1126,16 @@
       <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1103,13 +1143,16 @@
       <c r="D7" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1117,13 +1160,16 @@
       <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1131,13 +1177,16 @@
       <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -1145,13 +1194,16 @@
       <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -1160,12 +1212,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -1174,12 +1226,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -1188,12 +1240,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
@@ -1201,13 +1253,16 @@
       <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -1215,13 +1270,16 @@
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -1229,13 +1287,16 @@
       <c r="D16" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -1243,13 +1304,16 @@
       <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
@@ -1257,13 +1321,16 @@
       <c r="D18" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -1271,23 +1338,31 @@
       <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E19">
+    <sortState ref="A2:E19">
+      <sortCondition ref="A1:A19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1375,11 @@
       <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1313,6 +1391,9 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/data/team_links.xlsx
+++ b/data/team_links.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdnch\Documents\workbench\code-base\bookmark\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960CEDD-A086-416F-B8B4-80CADCFB9583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -23,8 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">roc!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Team / Title</t>
   </si>
@@ -112,9 +118,6 @@
     <t>ROC</t>
   </si>
   <si>
-    <t>fa-solid fa-users</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -296,13 +299,28 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>https://platform.securityscorecard.io/#/scorecard/scipher.io/company-overview</t>
+  </si>
+  <si>
+    <t>scorecard</t>
+  </si>
+  <si>
+    <t>ROCt</t>
+  </si>
+  <si>
+    <t>VX</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,30 +691,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="32.42578125" style="2"/>
+    <col min="5" max="16384" width="32.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,19 +725,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -729,7 +747,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -744,7 +762,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -759,7 +777,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -774,7 +792,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -789,7 +807,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -804,7 +822,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -820,7 +838,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -828,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -836,123 +854,123 @@
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="3"/>
@@ -962,22 +980,22 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,25 +1006,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="/scorecard/scipher.io/company-overview" xr:uid="{EBECDB6F-E6B5-4492-B4FC-2AC62AFCD5EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,277 +1049,280 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,42 +1333,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,74 +1380,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
     </row>
@@ -1420,29 +1456,32 @@
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,138 +1492,159 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>73</v>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D11">
-    <sortState ref="A2:D11">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
       <sortCondition ref="A1:A11"/>
     </sortState>
   </autoFilter>
@@ -1595,28 +1655,31 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,33 +1690,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,25 +1730,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9A6946DB-80D7-4778-97AF-B09A39C59772}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,25 +1779,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{840A53C8-0F2D-4BD9-9A5A-42C1383C9733}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,26 +1828,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1749,5 +1855,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{35c15001-c8e1-4e59-97bd-905e2080daab}" enabled="1" method="Standard" siteId="{c0701940-7b3f-4116-a59f-159078bc3c63}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>